--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp6-Acvr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H2">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J2">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>297.4509174229403</v>
+        <v>144.5826531600464</v>
       </c>
       <c r="R2">
-        <v>2677.058256806463</v>
+        <v>1301.243878440418</v>
       </c>
       <c r="S2">
-        <v>0.1471713328149688</v>
+        <v>0.07515897404548014</v>
       </c>
       <c r="T2">
-        <v>0.1471713328149688</v>
+        <v>0.07515897404548015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H3">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J3">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
-        <v>837.473256093691</v>
+        <v>389.7506263611731</v>
       </c>
       <c r="R3">
-        <v>7537.259304843218</v>
+        <v>3507.755637250557</v>
       </c>
       <c r="S3">
-        <v>0.4143609855502656</v>
+        <v>0.202605613956072</v>
       </c>
       <c r="T3">
-        <v>0.4143609855502656</v>
+        <v>0.2026056139560721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H4">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J4">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>325.4952760405722</v>
+        <v>239.3118338779716</v>
       </c>
       <c r="R4">
-        <v>2929.45748436515</v>
+        <v>2153.806504901744</v>
       </c>
       <c r="S4">
-        <v>0.1610469855493971</v>
+        <v>0.1244024197792287</v>
       </c>
       <c r="T4">
-        <v>0.1610469855493972</v>
+        <v>0.1244024197792287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.04655766666666</v>
+        <v>17.70643966666667</v>
       </c>
       <c r="H5">
-        <v>114.139673</v>
+        <v>53.119319</v>
       </c>
       <c r="I5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="J5">
-        <v>0.8090698722086991</v>
+        <v>0.4380235920947999</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>174.8078134200686</v>
+        <v>68.97699388819068</v>
       </c>
       <c r="R5">
-        <v>1573.270320780617</v>
+        <v>620.7929449937161</v>
       </c>
       <c r="S5">
-        <v>0.08649056829406758</v>
+        <v>0.03585658431401895</v>
       </c>
       <c r="T5">
-        <v>0.08649056829406761</v>
+        <v>0.03585658431401896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H6">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J6">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N6">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q6">
-        <v>12.64374854389066</v>
+        <v>13.20568253731022</v>
       </c>
       <c r="R6">
-        <v>113.793736895016</v>
+        <v>118.851142835792</v>
       </c>
       <c r="S6">
-        <v>0.006255813029938903</v>
+        <v>0.006864762330622529</v>
       </c>
       <c r="T6">
-        <v>0.006255813029938904</v>
+        <v>0.006864762330622531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H7">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J7">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q7">
-        <v>35.598482445512</v>
+        <v>35.59848244551201</v>
       </c>
       <c r="R7">
-        <v>320.386342009608</v>
+        <v>320.3863420096081</v>
       </c>
       <c r="S7">
-        <v>0.01761324575189298</v>
+        <v>0.0185053003227089</v>
       </c>
       <c r="T7">
-        <v>0.01761324575189298</v>
+        <v>0.01850530032270891</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H8">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J8">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N8">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q8">
-        <v>13.83583032164444</v>
+        <v>21.85792027288178</v>
       </c>
       <c r="R8">
-        <v>124.5224728948</v>
+        <v>196.721282455936</v>
       </c>
       <c r="S8">
-        <v>0.00684562551253752</v>
+        <v>0.01136248938978295</v>
       </c>
       <c r="T8">
-        <v>0.006845625512537521</v>
+        <v>0.01136248938978295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.617245333333333</v>
+        <v>1.617245333333334</v>
       </c>
       <c r="H9">
-        <v>4.851736</v>
+        <v>4.851736000000001</v>
       </c>
       <c r="I9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="J9">
-        <v>0.03439113957782537</v>
+        <v>0.04000756919748267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N9">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O9">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P9">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q9">
-        <v>7.430557133727111</v>
+        <v>6.300121513589334</v>
       </c>
       <c r="R9">
-        <v>66.875014203544</v>
+        <v>56.70109362230401</v>
       </c>
       <c r="S9">
-        <v>0.003676455283455967</v>
+        <v>0.003275017154368283</v>
       </c>
       <c r="T9">
-        <v>0.003676455283455967</v>
+        <v>0.003275017154368284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H10">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J10">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N10">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O10">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P10">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q10">
-        <v>57.55085840663499</v>
+        <v>172.2912667929927</v>
       </c>
       <c r="R10">
-        <v>517.957725659715</v>
+        <v>1550.621401136934</v>
       </c>
       <c r="S10">
-        <v>0.02847473663800106</v>
+        <v>0.0895628525700328</v>
       </c>
       <c r="T10">
-        <v>0.02847473663800106</v>
+        <v>0.08956285257003282</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H11">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J11">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>66.035403</v>
       </c>
       <c r="O11">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P11">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q11">
-        <v>162.034480170255</v>
+        <v>464.444576727999</v>
       </c>
       <c r="R11">
-        <v>1458.310321532295</v>
+        <v>4180.001190551991</v>
       </c>
       <c r="S11">
-        <v>0.08017063996723085</v>
+        <v>0.2414340664313513</v>
       </c>
       <c r="T11">
-        <v>0.08017063996723085</v>
+        <v>0.2414340664313514</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H12">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J12">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N12">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O12">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P12">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q12">
-        <v>62.97688608841667</v>
+        <v>285.1748679127414</v>
       </c>
       <c r="R12">
-        <v>566.79197479575</v>
+        <v>2566.573811214672</v>
       </c>
       <c r="S12">
-        <v>0.03115940049023342</v>
+        <v>0.1482435826665256</v>
       </c>
       <c r="T12">
-        <v>0.03115940049023343</v>
+        <v>0.1482435826665257</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.361255</v>
+        <v>21.099799</v>
       </c>
       <c r="H13">
-        <v>22.083765</v>
+        <v>63.299397</v>
       </c>
       <c r="I13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="J13">
-        <v>0.1565389882134754</v>
+        <v>0.5219688387077175</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N13">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O13">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P13">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q13">
-        <v>33.82184800663167</v>
+        <v>82.19612378681201</v>
       </c>
       <c r="R13">
-        <v>304.396632059685</v>
+        <v>739.765114081308</v>
       </c>
       <c r="S13">
-        <v>0.01673421111801012</v>
+        <v>0.04272833703980765</v>
       </c>
       <c r="T13">
-        <v>0.01673421111801012</v>
+        <v>0.04272833703980766</v>
       </c>
     </row>
   </sheetData>
